--- a/BBDDUsandoRegiones/modelado.xlsx
+++ b/BBDDUsandoRegiones/modelado.xlsx
@@ -117,6 +117,156 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cantidad registros</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cantidad registros</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>cluster 1-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cluster 1-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cluster 2-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cluster 2-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cluster 3-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>cluster 3-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2565</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,7 +557,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -444,6 +594,9 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="1">
+        <v>1471</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
@@ -452,6 +605,9 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="1">
+        <v>1528</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -460,6 +616,9 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1">
+        <v>2114</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
@@ -468,6 +627,9 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C5" s="1">
+        <v>3969</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
@@ -476,6 +638,9 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C6" s="1">
+        <v>2565</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -484,14 +649,22 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C7" s="1">
+        <v>5016</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C8" s="1">
+        <f>SUM(C2:C7)</f>
+        <v>16663</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
